--- a/config_1.19/item_config.xlsx
+++ b/config_1.19/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3537,14 +3537,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢庆嘉年华活动掉落道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3594,6 +3586,14 @@
   </si>
   <si>
     <t>ty_lb1_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物活动通用道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4186,9 +4186,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -8528,7 +8528,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D131" s="39">
         <v>-1</v>
@@ -8546,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="40" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="J131" s="40" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -10297,7 +10297,7 @@
         <v>639</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -14073,7 +14073,7 @@
         <v>291</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D292" s="11">
         <v>-1</v>
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G292" s="11">
         <v>1</v>
@@ -14091,10 +14091,10 @@
         <v>33</v>
       </c>
       <c r="I292" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J292" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -14105,7 +14105,7 @@
         <v>292</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D293" s="2">
         <v>-1</v>
@@ -14114,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G293" s="2">
         <v>1</v>
@@ -14123,10 +14123,10 @@
         <v>33</v>
       </c>
       <c r="I293" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="J293" s="12" t="s">
         <v>937</v>
-      </c>
-      <c r="J293" s="12" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -14137,7 +14137,7 @@
         <v>293</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D294" s="2">
         <v>-1</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G294" s="2">
         <v>1</v>
@@ -14155,10 +14155,10 @@
         <v>33</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J294" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.19/item_config.xlsx
+++ b/config_1.19/item_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="952">
   <si>
     <t>id|行号</t>
   </si>
@@ -3594,6 +3594,54 @@
   </si>
   <si>
     <t>掉落物活动通用道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fclb_gong</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_cai</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字符</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买恭喜发财对应礼包获得</t>
+  </si>
+  <si>
+    <t>prop_fclb_xi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_fa</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4184,11 +4232,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q294"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J131" sqref="J131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14161,6 +14209,126 @@
         <v>937</v>
       </c>
     </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2">
+        <v>294</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="D295" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E295" s="13">
+        <v>1</v>
+      </c>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13">
+        <v>1</v>
+      </c>
+      <c r="H295" s="13">
+        <v>33</v>
+      </c>
+      <c r="I295" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="J295" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2">
+        <v>295</v>
+      </c>
+      <c r="C296" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="D296" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E296" s="13">
+        <v>1</v>
+      </c>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13">
+        <v>1</v>
+      </c>
+      <c r="H296" s="13">
+        <v>33</v>
+      </c>
+      <c r="I296" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="J296" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2">
+        <v>296</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="D297" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E297" s="13">
+        <v>1</v>
+      </c>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13">
+        <v>1</v>
+      </c>
+      <c r="H297" s="13">
+        <v>33</v>
+      </c>
+      <c r="I297" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="J297" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2">
+        <v>297</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="D298" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E298" s="13">
+        <v>1</v>
+      </c>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13">
+        <v>1</v>
+      </c>
+      <c r="H298" s="13">
+        <v>33</v>
+      </c>
+      <c r="I298" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="J298" s="33" t="s">
+        <v>949</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_1.19/item_config.xlsx
+++ b/config_1.19/item_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="956">
   <si>
     <t>id|行号</t>
   </si>
@@ -3642,6 +3642,21 @@
   </si>
   <si>
     <t>prop_fclb_fa</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_1</t>
+  </si>
+  <si>
+    <t>collect_words_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_words_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4236,7 +4251,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
+      <selection pane="bottomLeft" activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14225,7 +14240,9 @@
       <c r="E295" s="13">
         <v>1</v>
       </c>
-      <c r="F295" s="13"/>
+      <c r="F295" s="13" t="s">
+        <v>952</v>
+      </c>
       <c r="G295" s="13">
         <v>1</v>
       </c>
@@ -14255,7 +14272,9 @@
       <c r="E296" s="13">
         <v>1</v>
       </c>
-      <c r="F296" s="13"/>
+      <c r="F296" s="13" t="s">
+        <v>953</v>
+      </c>
       <c r="G296" s="13">
         <v>1</v>
       </c>
@@ -14285,7 +14304,9 @@
       <c r="E297" s="13">
         <v>1</v>
       </c>
-      <c r="F297" s="13"/>
+      <c r="F297" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="G297" s="13">
         <v>1</v>
       </c>
@@ -14315,7 +14336,9 @@
       <c r="E298" s="13">
         <v>1</v>
       </c>
-      <c r="F298" s="13"/>
+      <c r="F298" s="13" t="s">
+        <v>955</v>
+      </c>
       <c r="G298" s="13">
         <v>1</v>
       </c>
